--- a/Urquina/CORRIENTE/LAB-4_S_EQU-4/Ecuacion del sensor ACS712.xlsx
+++ b/Urquina/CORRIENTE/LAB-4_S_EQU-4/Ecuacion del sensor ACS712.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Documents\Laboratorio 4\mirar 2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jamon\OneDrive - Instituto Tecnológico Metropolitano\Documentos Post virus\ITM 2020-1\Lab de señales\Cuarta entrega\Urquina\CORRIENTE\LAB-4_S_EQU-4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B79E417-FBCC-4E8C-A099-2E79287941A4}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9680CEF5-6EA5-4218-9D59-66EF67CBE0BE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{175048E6-0AB1-4EF8-831E-1C6DFB27E4EF}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11760" xr2:uid="{175048E6-0AB1-4EF8-831E-1C6DFB27E4EF}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -1953,8 +1953,9 @@
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:noFill/>
+            <a:round/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -3036,8 +3037,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD16A986-7F85-49B3-B6A0-369E67990240}">
   <dimension ref="A1:C256"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="N12" sqref="N12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3060,7 +3061,7 @@
         <v>1.9607843137254902E-2</v>
       </c>
       <c r="C2" s="1">
-        <f t="shared" ref="C2:C65" si="1">((B2-2.5)/0.1)</f>
+        <f>((B2-2.5)/0.1)</f>
         <v>-24.803921568627452</v>
       </c>
     </row>
@@ -3073,7 +3074,7 @@
         <v>3.9215686274509803E-2</v>
       </c>
       <c r="C3" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="C2:C65" si="1">((B3-2.5)/0.1)</f>
         <v>-24.607843137254903</v>
       </c>
     </row>
@@ -5552,11 +5553,11 @@
         <v>193</v>
       </c>
       <c r="B194" s="1">
-        <f t="shared" ref="B194:B257" si="6">A194*5/255</f>
+        <f t="shared" ref="B194:B256" si="6">A194*5/255</f>
         <v>3.784313725490196</v>
       </c>
       <c r="C194" s="1">
-        <f t="shared" ref="C194:C257" si="7">((B194-2.5)/0.1)</f>
+        <f t="shared" ref="C194:C256" si="7">((B194-2.5)/0.1)</f>
         <v>12.84313725490196</v>
       </c>
     </row>
